--- a/config_2.2/item_config.xlsx
+++ b/config_2.2/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
   <si>
     <t>id|行号</t>
   </si>
@@ -3653,6 +3653,10 @@
   </si>
   <si>
     <t>collect_words_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4247,7 +4251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8605,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>437</v>
+        <v>955</v>
       </c>
       <c r="J131" s="40" t="s">
         <v>941</v>
